--- a/10_BryanOng_Test Cases.xlsx
+++ b/10_BryanOng_Test Cases.xlsx
@@ -34,7 +34,7 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>The bar will move up and down when w or s is 
+    <t>The bar will move up and down when W or S is 
 pressed</t>
   </si>
   <si>
